--- a/Spatial_data/UVic/Harrop-Archibald 2008/Invasive Exotic Plants/Invasive Exotic Plants Metadata.xlsx
+++ b/Spatial_data/UVic/Harrop-Archibald 2008/Invasive Exotic Plants/Invasive Exotic Plants Metadata.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\johnk\Documents\GitHub\Github Shackelford-lab\Shackelford-lab\Spatial_data\UVic\Harrop-Archibald 2008\Invasive Exotic Plants\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2996844A-4569-4900-9269-CA6035B86825}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{739ABA0D-FF11-4CA8-A32B-A630539E1CCB}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1965" yWindow="2235" windowWidth="17400" windowHeight="10785" xr2:uid="{6934027C-8984-4F11-9C55-B9A1F75C2751}"/>
+    <workbookView xWindow="870" yWindow="1305" windowWidth="14610" windowHeight="11565" xr2:uid="{6934027C-8984-4F11-9C55-B9A1F75C2751}"/>
   </bookViews>
   <sheets>
     <sheet name="Invasive Exotic Plants Metadata" sheetId="3" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="38">
   <si>
     <t>Data table metadata</t>
   </si>
@@ -90,16 +90,6 @@
     <t>Date</t>
   </si>
   <si>
-    <t xml:space="preserve">Date that the point was gathered. </t>
-  </si>
-  <si>
-    <t>yyyy-mm-dd</t>
-  </si>
-  <si>
-    <t>Year-month-day
-E.g. 2008-11-29</t>
-  </si>
-  <si>
     <t>Comments</t>
   </si>
   <si>
@@ -128,13 +118,100 @@
   </si>
   <si>
     <t xml:space="preserve">Extra observations or processes done on the polygon. </t>
+  </si>
+  <si>
+    <t>Year</t>
+  </si>
+  <si>
+    <t>Year the data was recorded.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Values:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> 
+yyyy. E.g. 2008. 
+NULL = neither the original meta-data nor accompanying report provided the year of creation. </t>
+    </r>
+  </si>
+  <si>
+    <t>Month</t>
+  </si>
+  <si>
+    <t>Month the data was recorded.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Values:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> 
+1-12. E.g. 2=February.
+NULL = neither the original meta-data nor accompanying report provided the month of creation. </t>
+    </r>
+  </si>
+  <si>
+    <t>Day</t>
+  </si>
+  <si>
+    <t>Day the data was recorded.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Values:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> 
+1-31. E.g. 15=the 15th day of a month. 
+NULL = neither the original meta-data nor accompanying report provided the day of creation.</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -168,6 +245,13 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="4">
@@ -234,13 +318,13 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -558,10 +642,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FC2632A-81E2-4372-B21A-08C497B1BE35}">
-  <dimension ref="A1:F19"/>
+  <dimension ref="A1:F21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="F17" sqref="F16:F17"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -572,27 +656,27 @@
     <col min="5" max="5" width="23.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="12" customFormat="1" ht="12" x14ac:dyDescent="0.2">
-      <c r="A1" s="9" t="s">
+    <row r="1" spans="1:6" s="11" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+      <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-    </row>
-    <row r="2" spans="1:6" s="12" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+    </row>
+    <row r="2" spans="1:6" s="11" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>16</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
     </row>
-    <row r="3" spans="1:6" s="12" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" s="11" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
@@ -603,7 +687,7 @@
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
     </row>
-    <row r="4" spans="1:6" s="12" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" s="11" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
@@ -614,7 +698,7 @@
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
     </row>
-    <row r="5" spans="1:6" s="12" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" s="11" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>3</v>
       </c>
@@ -625,38 +709,38 @@
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
     </row>
-    <row r="6" spans="1:6" s="12" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" s="11" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="10" t="s">
+      <c r="B6" s="9" t="s">
         <v>5</v>
       </c>
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
     </row>
-    <row r="7" spans="1:6" s="12" customFormat="1" ht="12" x14ac:dyDescent="0.2">
-      <c r="A7" s="9" t="s">
+    <row r="7" spans="1:6" s="11" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+      <c r="A7" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="9"/>
-      <c r="C7" s="9"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="9"/>
-    </row>
-    <row r="8" spans="1:6" s="12" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+      <c r="B7" s="12"/>
+      <c r="C7" s="12"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="12"/>
+    </row>
+    <row r="8" spans="1:6" s="11" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>16</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
     </row>
-    <row r="9" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>1</v>
       </c>
@@ -668,7 +752,7 @@
       <c r="E9" s="3"/>
       <c r="F9"/>
     </row>
-    <row r="10" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>2</v>
       </c>
@@ -680,7 +764,7 @@
       <c r="E10" s="3"/>
       <c r="F10"/>
     </row>
-    <row r="11" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>3</v>
       </c>
@@ -692,11 +776,11 @@
       <c r="E11" s="3"/>
       <c r="F11"/>
     </row>
-    <row r="12" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B12" s="10" t="s">
+      <c r="B12" s="9" t="s">
         <v>5</v>
       </c>
       <c r="C12" s="3"/>
@@ -704,8 +788,8 @@
       <c r="E12" s="3"/>
       <c r="F12"/>
     </row>
-    <row r="13" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="11" t="s">
+    <row r="13" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="10" t="s">
         <v>6</v>
       </c>
       <c r="B13" s="1"/>
@@ -736,7 +820,7 @@
         <v>12</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C15" s="3"/>
       <c r="D15" s="3" t="s">
@@ -746,64 +830,101 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="36.75" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" s="11" customFormat="1" ht="72.75" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C16" s="7"/>
+        <v>30</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="D16" s="3" t="s">
         <v>15</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="36.75" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+      <c r="F16"/>
+    </row>
+    <row r="17" spans="1:6" s="11" customFormat="1" ht="72.75" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>30</v>
+        <v>33</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>18</v>
       </c>
       <c r="D17" s="3" t="s">
         <v>15</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="24.75" x14ac:dyDescent="0.25">
+        <v>34</v>
+      </c>
+      <c r="F17"/>
+    </row>
+    <row r="18" spans="1:6" s="11" customFormat="1" ht="84.75" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C18" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B18" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>20</v>
-      </c>
       <c r="D18" s="3" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="8" t="s">
-        <v>22</v>
+        <v>37</v>
+      </c>
+      <c r="F18"/>
+    </row>
+    <row r="19" spans="1:6" ht="36.75" x14ac:dyDescent="0.25">
+      <c r="A19" s="6" t="s">
+        <v>23</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="C19" s="3"/>
+        <v>24</v>
+      </c>
+      <c r="C19" s="7"/>
       <c r="D19" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="E19" s="3"/>
+      <c r="E19" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="36.75" x14ac:dyDescent="0.25">
+      <c r="A20" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E21" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="2">
